--- a/roadmaps/BSIT.xlsx
+++ b/roadmaps/BSIT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/037c70bc1895faa0/Desktop/tts_v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/037c70bc1895faa0/Desktop/tts_v2/roadmaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F44679-2212-4570-AED8-37B5A8BF0A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{E7F44679-2212-4570-AED8-37B5A8BF0A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA1C14C0-767A-4487-A14F-AE3A15EBAF98}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F459EF9F-2A88-4E6A-8CB1-B148DF59868A}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
   <si>
     <t>semester</t>
   </si>
@@ -168,54 +168,12 @@
     <t>room_type</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>theory</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>Lab1</t>
-  </si>
-  <si>
     <t>lab</t>
   </si>
   <si>
-    <t>Lab2</t>
-  </si>
-  <si>
-    <t>Lab3</t>
-  </si>
-  <si>
-    <t>Lab4</t>
-  </si>
-  <si>
-    <t>Lab5</t>
-  </si>
-  <si>
-    <t>Lab6</t>
-  </si>
-  <si>
     <t>PhysicsLab1</t>
   </si>
   <si>
@@ -243,9 +201,6 @@
     <t>Artificial Intelligence</t>
   </si>
   <si>
-    <t>Innovation and Entrepreneurship</t>
-  </si>
-  <si>
     <t>Information Security</t>
   </si>
   <si>
@@ -306,18 +261,12 @@
     <t>Web Technologies Lab</t>
   </si>
   <si>
-    <t>University Elective 1</t>
-  </si>
-  <si>
     <t>Database Administration and Management</t>
   </si>
   <si>
     <t>Database Administration and Management Lab</t>
   </si>
   <si>
-    <t>Technical Elective 2</t>
-  </si>
-  <si>
     <t>System and Network Administration</t>
   </si>
   <si>
@@ -333,9 +282,6 @@
     <t>Technical &amp; Business Writing</t>
   </si>
   <si>
-    <t>Technical Elective 4</t>
-  </si>
-  <si>
     <t>IT451</t>
   </si>
   <si>
@@ -345,12 +291,6 @@
     <t>Parallel &amp; Distributed Computing</t>
   </si>
   <si>
-    <t>Technical Elective 5</t>
-  </si>
-  <si>
-    <t>Technical Elective 6</t>
-  </si>
-  <si>
     <t>Final Year Project – I</t>
   </si>
   <si>
@@ -400,13 +340,55 @@
   </si>
   <si>
     <t>CC451</t>
+  </si>
+  <si>
+    <t>IT_Room1</t>
+  </si>
+  <si>
+    <t>IT_Room2</t>
+  </si>
+  <si>
+    <t>IT_Room3</t>
+  </si>
+  <si>
+    <t>IT_Room4</t>
+  </si>
+  <si>
+    <t>IT_Room5</t>
+  </si>
+  <si>
+    <t>IT_Room6</t>
+  </si>
+  <si>
+    <t>IT_Room7</t>
+  </si>
+  <si>
+    <t>IT_Room8</t>
+  </si>
+  <si>
+    <t>IT_Lab1</t>
+  </si>
+  <si>
+    <t>IT_Lab2</t>
+  </si>
+  <si>
+    <t>IT_Lab3</t>
+  </si>
+  <si>
+    <t>IT_Lab4</t>
+  </si>
+  <si>
+    <t>IT_Lab5</t>
+  </si>
+  <si>
+    <t>IT_Lab6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +526,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1277,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62957184-BBA0-438F-8BF1-B1D84A59C139}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>0</v>
@@ -1395,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>0</v>
@@ -1412,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
@@ -1497,10 +1485,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>0</v>
@@ -1551,7 +1539,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="b">
         <v>0</v>
@@ -1565,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
@@ -1582,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -1650,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>34</v>
@@ -1670,7 +1658,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="b">
         <v>0</v>
@@ -1687,7 +1675,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="b">
         <v>0</v>
@@ -1701,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>42</v>
@@ -1718,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>43</v>
@@ -1769,10 +1757,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D29" s="1" t="b">
         <v>0</v>
@@ -1803,10 +1791,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1" t="b">
         <v>0</v>
@@ -1820,10 +1808,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>1</v>
@@ -1834,13 +1822,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
@@ -1854,16 +1842,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1871,16 +1859,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,10 +1876,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1" t="b">
         <v>0</v>
@@ -1905,10 +1893,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="b">
         <v>0</v>
@@ -1922,61 +1910,61 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D41" s="1" t="b">
         <v>0</v>
@@ -1986,82 +1974,82 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>6</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2</v>
+      <c r="B42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>6</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
+      <c r="B43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>6</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="B44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D45" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D46" s="2" t="b">
         <v>0</v>
@@ -2072,13 +2060,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D47" s="2" t="b">
         <v>0</v>
@@ -2089,13 +2077,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D48" s="2" t="b">
         <v>0</v>
@@ -2106,13 +2094,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D49" s="2" t="b">
         <v>0</v>
@@ -2123,137 +2111,18 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D50" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E50" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>7</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>7</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>7</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>7</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>8</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>8</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>8</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2267,7 +2136,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2282,149 +2151,150 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2434,7 +2304,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2444,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2452,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2460,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>550</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2468,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2476,7 +2346,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>450</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2492,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2508,7 +2378,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
